--- a/biology/Botanique/Canular_de_la_pomme_de_terre_Maggie_Murphy/Canular_de_la_pomme_de_terre_Maggie_Murphy.xlsx
+++ b/biology/Botanique/Canular_de_la_pomme_de_terre_Maggie_Murphy/Canular_de_la_pomme_de_terre_Maggie_Murphy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canular de la pomme de terre Maggie Murphy est un canular lancé en 1895 au Colorado par W. L. Thorndyke. Ce journaliste a créé une image qui représentait un agriculteur, Joseph B. Swan, portant ce qui semble être une pomme de terre géante. La photo s'est rapidement diffusée dans tous les États-Unis et a été reproduite dans une planche du journal Ripley's Believe It or Not!.
 </t>
@@ -511,17 +523,19 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le canular a commencé à Loveland (Colorado).  W. L. Thorndyke, rédacteur en chef d'un journal local, voulait faire la promotion d'une foire prochaine. Il s'adressa à un agriculteur, Joseph B. Swan, et voulut l'aider à recruter des clients[1] Swan était connu pour cultiver plus de 70 variétés différentes de pommes de terre et sa réussite dans cette culture avait fait l'objet de plusieurs reportages[2]. 
-Avec l'aide d'un photographe local, Adam Talbot, ils ont produit une photo de cet agriculteur portant une pomme de terre « Maggie Murphy »[3] géante.
-Il s'agissait en fait de pomme de terre « géante » d'une photo de pomme de terre agrandie et collée sur une planche découpée selon le contour du tubercule[4]. 
-La photo est parue dans un numéro de 1895 du Loveland Reporter (maintenant Reporter-Herald (en))[1].
-L'article laissait entendre que la pomme de terre pesait 86 livre et 10 onces (39,29 kg) et mesurait 2 pieds 5 pouces (73,66 cm) de long[5]. 
-Swan jura qu'il l'avait cultivée lui-même[6]. 
-L'image se propagea rapidement dans l'ensemble des États-Unis. Plus d'un millier de personnes ont écrit à Thorndyke, lui demandant des morceaux de la pomme de terre Maggie Murphy pour pouvoir cultiver leurs propres pommes de terre géantes[2].
-Les demandes de plants étaient également nombreuses[1].
-Thorndyke, se rendant compte que cette photo commençait à lui échapper, admit qu'il s'agissait d'un canular. Il avoua par écrit qu'il avait demandé à Swan de fabriquer une pomme de terre factice en bois[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le canular a commencé à Loveland (Colorado).  W. L. Thorndyke, rédacteur en chef d'un journal local, voulait faire la promotion d'une foire prochaine. Il s'adressa à un agriculteur, Joseph B. Swan, et voulut l'aider à recruter des clients Swan était connu pour cultiver plus de 70 variétés différentes de pommes de terre et sa réussite dans cette culture avait fait l'objet de plusieurs reportages. 
+Avec l'aide d'un photographe local, Adam Talbot, ils ont produit une photo de cet agriculteur portant une pomme de terre « Maggie Murphy » géante.
+Il s'agissait en fait de pomme de terre « géante » d'une photo de pomme de terre agrandie et collée sur une planche découpée selon le contour du tubercule. 
+La photo est parue dans un numéro de 1895 du Loveland Reporter (maintenant Reporter-Herald (en)).
+L'article laissait entendre que la pomme de terre pesait 86 livre et 10 onces (39,29 kg) et mesurait 2 pieds 5 pouces (73,66 cm) de long. 
+Swan jura qu'il l'avait cultivée lui-même. 
+L'image se propagea rapidement dans l'ensemble des États-Unis. Plus d'un millier de personnes ont écrit à Thorndyke, lui demandant des morceaux de la pomme de terre Maggie Murphy pour pouvoir cultiver leurs propres pommes de terre géantes.
+Les demandes de plants étaient également nombreuses.
+Thorndyke, se rendant compte que cette photo commençait à lui échapper, admit qu'il s'agissait d'un canular. Il avoua par écrit qu'il avait demandé à Swan de fabriquer une pomme de terre factice en bois.
 </t>
         </is>
       </c>
@@ -550,12 +564,14 @@
           <t>Impact culturel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La photo fut reproduite dans de nombreuses publications, parmi lesquelles le Scientific American et Ripley's Believe It or Not![2].
-Elle a été reproduite dans le livre The World of Ripley's Believe It Or Not! (publié en 1999), sans toutefois qu'il soit mentionné que c'était un canular[5].
-Quand Ripley Believe It or Not! a été adapté dans des séries télévisées (en), la photographie a été utilisée dans la séquence d'ouverture[2].
-En 2012, Rick Padden, auteur dramatique du Colorado, a adapté l'histoire de cette mystification dans une pièce en deux actes, intitulée « The Great Loveland Potato Hoax »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La photo fut reproduite dans de nombreuses publications, parmi lesquelles le Scientific American et Ripley's Believe It or Not!.
+Elle a été reproduite dans le livre The World of Ripley's Believe It Or Not! (publié en 1999), sans toutefois qu'il soit mentionné que c'était un canular.
+Quand Ripley Believe It or Not! a été adapté dans des séries télévisées (en), la photographie a été utilisée dans la séquence d'ouverture.
+En 2012, Rick Padden, auteur dramatique du Colorado, a adapté l'histoire de cette mystification dans une pièce en deux actes, intitulée « The Great Loveland Potato Hoax ».
 </t>
         </is>
       </c>
